--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1258748.655115973</v>
+        <v>-1260646.887220096</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>102.395849796388</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.39116211787822</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.22767243268262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9.22084658737597</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>60.8919320286473</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.5804705304104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>98.63674277904876</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>17.46627909926809</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>368.7789736178274</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>87.17482549607469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.30079766335502</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>72.62557831284302</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>96.63060094775798</v>
+        <v>6.661291090489108</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>140.0680651027553</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>106.5332566318394</v>
+        <v>66.90445977359191</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.4169444883358</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>73.16334503090525</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185879</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>124.5011772843723</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>127.8017093406823</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329096</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.315630222944</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2685.642866656729</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2509.4653789709</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2290.830711942962</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2290.830711942962</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1959.767824599392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1959.767824599392</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1959.767824599392</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.315630222944</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1838.715370239898</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4653,7 +4653,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.5758555962227</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>322.5758555962227</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="Y7" t="n">
-        <v>322.5758555962227</v>
+        <v>562.3396194797416</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.912423534854</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.912423534854</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>972.6467249281038</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>586.8584723298595</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>579.9129715806561</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598976</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>252.6519168570173</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>252.6519168570173</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>252.6519168570173</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7619693591069</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>105.7619693591069</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>105.7619693591069</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,25 +5042,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.657822921639</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1290.23449949573</v>
+        <v>957.4071649657059</v>
       </c>
       <c r="V13" t="n">
-        <v>1035.550011289843</v>
+        <v>702.722676759819</v>
       </c>
       <c r="W13" t="n">
-        <v>746.1328412528823</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="X13" t="n">
-        <v>746.1328412528823</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5303,16 +5303,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5361,19 +5361,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>953.6472828615139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1191.386910340284</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.386910340284</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>963.3973594422661</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.6047802987359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,19 +5832,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2013.406634128704</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
         <v>2525.810590821615</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>496.665036439558</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y22" t="n">
-        <v>496.665036439558</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5972,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>720.4504516500522</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>646.5480829319661</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6233,16 +6233,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6309,22 +6309,22 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030239</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.8019868198124</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>369.8658038919056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>720.4504516500522</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.4504516500522</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>410.874530133163</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1024.771599890052</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083209</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,25 +6859,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,46 +6914,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>943.0172707642139</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1711.385417156675</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103137</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7157,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,22 +7257,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646855</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,22 +7494,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582209</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>880.810628064685</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.2351313103793</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>124.340078086323</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>28.1226370626303</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>253.7371603504738</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>76.43196988338514</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>297.2466435761025</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>22.04402060665552</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>349.7653003338567</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11142,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0022427662466</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>223.6742649934472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.08724045693349</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>136.2002014355553</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29.21765687997624</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>189.6067514508194</v>
+        <v>279.5760613080882</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>85.64159028628185</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>145.6043866919886</v>
+        <v>185.2331835502361</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.41503569360148</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>152.5463103581319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>185.233183550236</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.11429573384009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.7212889959087</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-2.293720896561331e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1308063.461243507</v>
+        <v>1308063.461243506</v>
       </c>
     </row>
     <row r="3">
@@ -26323,7 +26323,7 @@
         <v>136860.1709081981</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="G2" t="n">
         <v>136860.1709081981</v>
@@ -26338,22 +26338,22 @@
         <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="L2" t="n">
         <v>143682.3097262493</v>
       </c>
-      <c r="L2" t="n">
-        <v>143682.3097262496</v>
-      </c>
       <c r="M2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996773</v>
+        <v>161410.6210996772</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,13 +26427,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819115</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819117</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,13 +26482,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-691849.8303067865</v>
+        <v>-691868.3240447209</v>
       </c>
       <c r="C6" t="n">
         <v>-104809.6361236841</v>
@@ -26528,40 +26528,40 @@
         <v>-104809.6361236841</v>
       </c>
       <c r="E6" t="n">
-        <v>-502461.7991042854</v>
+        <v>-502559.2582302574</v>
       </c>
       <c r="F6" t="n">
-        <v>22698.23737261073</v>
+        <v>22600.77824663867</v>
       </c>
       <c r="G6" t="n">
-        <v>22698.23737261079</v>
+        <v>22600.77824663861</v>
       </c>
       <c r="H6" t="n">
-        <v>22698.2373726107</v>
+        <v>22600.77824663861</v>
       </c>
       <c r="I6" t="n">
-        <v>22698.23737261081</v>
+        <v>22600.77824663857</v>
       </c>
       <c r="J6" t="n">
-        <v>-153724.9818199821</v>
+        <v>-153822.4409459544</v>
       </c>
       <c r="K6" t="n">
-        <v>-53131.70302567982</v>
+        <v>-53131.70302567944</v>
       </c>
       <c r="L6" t="n">
-        <v>1373.809078033024</v>
+        <v>1373.809078032747</v>
       </c>
       <c r="M6" t="n">
-        <v>-133427.2061558043</v>
+        <v>-133427.2061558041</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.80907803314</v>
+        <v>1373.809078033068</v>
       </c>
       <c r="O6" t="n">
-        <v>1373.809078032937</v>
+        <v>1373.809078032951</v>
       </c>
       <c r="P6" t="n">
-        <v>-53131.70302567952</v>
+        <v>-53131.70302567964</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,10 +26765,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3379918670925</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>364.010266223371</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>189.3669964721186</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>321.8419096348333</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.6574681256432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68.61007831957907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.2433762897691</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>45.00519640296756</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>282.5562751823944</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>83.66482412898321</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>213.6562959291347</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.2481640954534</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>457.5346514843358</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>408.1301468599573</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36200,10 +36200,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,10 +36212,10 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>310.4863393037384</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>586.9317337484866</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>283.5253848149098</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>336.4270607962786</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>556.8688383914609</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36911,10 +36911,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>630.4412169741155</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>271.3017255626798</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37625,25 +37625,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>599.023005289881</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>522.1968161642595</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>374.2497035813865</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
